--- a/experiment-data/experiment-1-data.xlsx
+++ b/experiment-data/experiment-1-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -303,7 +303,7 @@
     <t xml:space="preserve">Bot Responses - Total Retrieved Relevant Outcomes (TP)</t>
   </si>
   <si>
-    <t xml:space="preserve">Educator Action</t>
+    <t xml:space="preserve">Modeller Action</t>
   </si>
   <si>
     <t xml:space="preserve">Response Type</t>
@@ -1675,7 +1675,7 @@
       <selection pane="topLeft" activeCell="B134" activeCellId="0" sqref="B134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.37"/>
@@ -6262,8 +6262,8 @@
   </sheetPr>
   <dimension ref="B15:P22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6702,11 +6702,11 @@
   </sheetPr>
   <dimension ref="B2:G159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="16.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.09"/>
@@ -8845,10 +8845,10 @@
   <dimension ref="B3:G192"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="16.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.09"/>
@@ -11505,10 +11505,10 @@
   <dimension ref="B3:G152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="16.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.09"/>
@@ -13739,11 +13739,11 @@
   </sheetPr>
   <dimension ref="C2:Q14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G2" s="0" t="n">
